--- a/Solutions_Exercises/z_data/CH_body_heights.xlsx
+++ b/Solutions_Exercises/z_data/CH_body_heights.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\GS\GESB\ESS\14-03.10 ESS22\Tableaux standards\Préparation de la publication 29.01.2024\JIRA final, nach Themen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juergen/Library/Mobile Documents/com~apple~CloudDocs/1_ZHAW/1_Quantitative_Methoden_2/Script_QM2_ZHAW/Solutions_Exercises/z_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C806D216-EBB9-4121-B672-D61F342ED737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DABFFA-D3D6-6749-802B-3681FDFADF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="55">
   <si>
     <t>Schweizerische Eidgenossenschaft
 Eidgenössisches Departement des Inneren EDI
@@ -196,6 +196,21 @@
   <si>
     <t>1992, Bevölkerung ab 15 Jahren in Privathaushalten</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">VI +/-
+in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -206,7 +221,7 @@
     <numFmt numFmtId="165" formatCode="##0.0"/>
     <numFmt numFmtId="166" formatCode="###\ ###\ ###"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,8 +388,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,6 +596,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,164 +860,176 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="25" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="25" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="25" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="25" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="22" fillId="36" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="22" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="37" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20 % - Akzent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40 % - Akzent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60 % - Akzent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Akzent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ausgabe" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Berechnung" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Eingabe" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Ergebnis" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Erklärender Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Gut" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Notiz" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Schlecht" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Überschrift" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Überschrift 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Überschrift 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Überschrift 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Überschrift 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Verknüpfte Zelle" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Warnender Text" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle überprüfen" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1006,9 +1045,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1046,7 +1085,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1152,7 +1191,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1294,7 +1333,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1307,22 +1346,22 @@
   </sheetPr>
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:K4"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1337,7 +1376,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -1352,7 +1391,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1387,7 +1426,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -1402,7 +1441,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>47</v>
       </c>
@@ -1417,8 +1456,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -1434,7 +1473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -1442,8 +1481,8 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>9</v>
@@ -1452,7 +1491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -1462,27 +1501,27 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="39">
         <v>171.08</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="40">
         <v>0.16</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="41">
         <v>21873</v>
       </c>
       <c r="F10" s="7">
         <v>7182252</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -1492,7 +1531,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -1502,7 +1541,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -1522,7 +1561,7 @@
         <v>3548077</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -1542,7 +1581,7 @@
         <v>3634175</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -1552,7 +1591,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -1562,7 +1601,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1621,7 @@
         <v>804408</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1602,7 +1641,7 @@
         <v>1110406</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +1661,7 @@
         <v>1218144</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -1642,7 +1681,7 @@
         <v>1223931</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +1701,7 @@
         <v>1190409</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -1682,7 +1721,7 @@
         <v>847919</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -1702,7 +1741,7 @@
         <v>787035</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -1712,7 +1751,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -1722,7 +1761,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -1742,7 +1781,7 @@
         <v>715815</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -1762,7 +1801,7 @@
         <v>2828575</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -1782,7 +1821,7 @@
         <v>2788797</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -1792,7 +1831,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -1802,7 +1841,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1822,7 +1861,7 @@
         <v>5143601</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -1842,7 +1881,7 @@
         <v>1726136</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1901,7 @@
         <v>312514</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -1872,7 +1911,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -1882,7 +1921,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -1902,7 +1941,7 @@
         <v>1341251</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -1922,7 +1961,7 @@
         <v>1574308</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -1942,7 +1981,7 @@
         <v>991231</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -1962,7 +2001,7 @@
         <v>1294152</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -1982,7 +2021,7 @@
         <v>991104</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -2002,7 +2041,7 @@
         <v>690737</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -2022,7 +2061,7 @@
         <v>299469</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -2032,7 +2071,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -2042,7 +2081,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -2052,7 +2091,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -2072,7 +2111,7 @@
         <v>416370</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -2092,7 +2131,7 @@
         <v>582788</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -2112,7 +2151,7 @@
         <v>592023</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -2132,7 +2171,7 @@
         <v>610588</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -2152,7 +2191,7 @@
         <v>594103</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2211,7 @@
         <v>395054</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -2192,7 +2231,7 @@
         <v>357152</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -2202,7 +2241,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -2222,7 +2261,7 @@
         <v>388038</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -2242,7 +2281,7 @@
         <v>527619</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -2262,7 +2301,7 @@
         <v>626121</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -2282,7 +2321,7 @@
         <v>613343</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -2302,7 +2341,7 @@
         <v>596307</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -2322,7 +2361,7 @@
         <v>452865</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -2342,7 +2381,7 @@
         <v>429883</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -2352,7 +2391,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -2362,7 +2401,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -2372,7 +2411,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -2392,7 +2431,7 @@
         <v>277485</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -2412,7 +2451,7 @@
         <v>1291961</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -2432,7 +2471,7 @@
         <v>1544220</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -2442,7 +2481,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -2462,7 +2501,7 @@
         <v>438330</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -2482,7 +2521,7 @@
         <v>1536614</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -2502,7 +2541,7 @@
         <v>1244577</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -2512,7 +2551,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -2527,7 +2566,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -2542,7 +2581,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -2557,7 +2596,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -2572,7 +2611,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -2587,7 +2626,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
@@ -2630,17 +2669,17 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -2655,7 +2694,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -2670,7 +2709,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2705,7 +2744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -2720,7 +2759,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>48</v>
       </c>
@@ -2735,8 +2774,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -2752,7 +2791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -2780,7 +2819,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -2800,7 +2839,7 @@
         <v>7036199</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -2810,7 +2849,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -2820,7 +2859,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -2840,7 +2879,7 @@
         <v>3475924</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -2860,7 +2899,7 @@
         <v>3560275</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -2870,7 +2909,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -2880,7 +2919,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2900,7 +2939,7 @@
         <v>885991</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -2920,7 +2959,7 @@
         <v>1157308</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -2940,7 +2979,7 @@
         <v>1165722</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -2960,7 +2999,7 @@
         <v>1290128</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -2980,7 +3019,7 @@
         <v>1067640</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -3000,7 +3039,7 @@
         <v>809941</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -3020,7 +3059,7 @@
         <v>659469</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -3030,7 +3069,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -3040,7 +3079,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -3060,7 +3099,7 @@
         <v>891780</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -3080,7 +3119,7 @@
         <v>2916880</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -3100,7 +3139,7 @@
         <v>2313356</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -3110,7 +3149,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -3120,7 +3159,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -3140,7 +3179,7 @@
         <v>5005600</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -3160,7 +3199,7 @@
         <v>1714459</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3219,7 @@
         <v>316140</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -3190,7 +3229,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -3200,7 +3239,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -3220,7 +3259,7 @@
         <v>1315040</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -3240,7 +3279,7 @@
         <v>1556972</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -3260,7 +3299,7 @@
         <v>964614</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -3280,7 +3319,7 @@
         <v>1247724</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -3300,7 +3339,7 @@
         <v>979901</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -3320,7 +3359,7 @@
         <v>671090</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -3340,7 +3379,7 @@
         <v>300858</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -3350,7 +3389,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -3360,7 +3399,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -3370,7 +3409,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -3390,7 +3429,7 @@
         <v>456993</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -3410,7 +3449,7 @@
         <v>582606</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -3430,7 +3469,7 @@
         <v>586175</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -3450,7 +3489,7 @@
         <v>649368</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -3470,7 +3509,7 @@
         <v>530735</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -3490,7 +3529,7 @@
         <v>385655</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -3510,7 +3549,7 @@
         <v>284393</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -3520,7 +3559,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -3540,7 +3579,7 @@
         <v>428998</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -3560,7 +3599,7 @@
         <v>574702</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +3619,7 @@
         <v>579547</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -3600,7 +3639,7 @@
         <v>640760</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -3620,7 +3659,7 @@
         <v>536906</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -3640,7 +3679,7 @@
         <v>424286</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -3660,7 +3699,7 @@
         <v>375077</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -3670,7 +3709,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -3680,7 +3719,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -3690,7 +3729,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -3710,7 +3749,7 @@
         <v>330125</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -3730,7 +3769,7 @@
         <v>1332000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -3750,7 +3789,7 @@
         <v>1347047</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -3760,7 +3799,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -3780,7 +3819,7 @@
         <v>561654</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -3800,7 +3839,7 @@
         <v>1584881</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -3820,7 +3859,7 @@
         <v>966310</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -3830,7 +3869,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -3845,7 +3884,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -3860,7 +3899,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -3875,7 +3914,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -3890,7 +3929,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -3905,7 +3944,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
@@ -3948,17 +3987,17 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -3973,7 +4012,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -3988,7 +4027,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -4023,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -4038,7 +4077,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>49</v>
       </c>
@@ -4053,8 +4092,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -4070,7 +4109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -4088,7 +4127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -4098,7 +4137,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -4118,7 +4157,7 @@
         <v>6838268</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -4128,7 +4167,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -4138,7 +4177,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -4158,7 +4197,7 @@
         <v>3350658</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -4178,7 +4217,7 @@
         <v>3487610</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -4188,7 +4227,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -4198,7 +4237,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -4218,7 +4257,7 @@
         <v>895674</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -4238,7 +4277,7 @@
         <v>1070448</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -4258,7 +4297,7 @@
         <v>1148076</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -4278,7 +4317,7 @@
         <v>1304864</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -4298,7 +4337,7 @@
         <v>969387</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -4318,7 +4357,7 @@
         <v>768938</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -4338,7 +4377,7 @@
         <v>680881</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -4348,7 +4387,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -4358,7 +4397,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -4378,7 +4417,7 @@
         <v>977189</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -4398,7 +4437,7 @@
         <v>3036366</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -4418,7 +4457,7 @@
         <v>1893776</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -4428,7 +4467,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -4438,7 +4477,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -4458,7 +4497,7 @@
         <v>4877203</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -4478,7 +4517,7 @@
         <v>1654306</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -4498,7 +4537,7 @@
         <v>306759</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -4508,7 +4547,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -4518,7 +4557,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -4538,7 +4577,7 @@
         <v>1278645</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -4558,7 +4597,7 @@
         <v>1523376</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -4578,7 +4617,7 @@
         <v>934053</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -4598,7 +4637,7 @@
         <v>1200173</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -4618,7 +4657,7 @@
         <v>957442</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -4638,7 +4677,7 @@
         <v>649714</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -4658,7 +4697,7 @@
         <v>294865</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -4668,7 +4707,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -4678,7 +4717,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -4688,7 +4727,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -4708,7 +4747,7 @@
         <v>455962</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -4728,7 +4767,7 @@
         <v>542052</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -4748,7 +4787,7 @@
         <v>574535</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -4768,7 +4807,7 @@
         <v>660403</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -4788,7 +4827,7 @@
         <v>485889</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -4808,7 +4847,7 @@
         <v>366117</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -4828,7 +4867,7 @@
         <v>265700</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -4838,7 +4877,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -4858,7 +4897,7 @@
         <v>439713</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -4878,7 +4917,7 @@
         <v>528396</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -4898,7 +4937,7 @@
         <v>573541</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -4918,7 +4957,7 @@
         <v>644461</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -4938,7 +4977,7 @@
         <v>483498</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -4958,7 +4997,7 @@
         <v>402820</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -4978,7 +5017,7 @@
         <v>415181</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -4988,7 +5027,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -4998,7 +5037,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -5008,7 +5047,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -5028,7 +5067,7 @@
         <v>335848</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -5048,7 +5087,7 @@
         <v>1373296</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -5068,7 +5107,7 @@
         <v>1165394</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -5078,7 +5117,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -5098,7 +5137,7 @@
         <v>641342</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -5118,7 +5157,7 @@
         <v>1663070</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -5138,7 +5177,7 @@
         <v>728381</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -5148,7 +5187,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -5163,7 +5202,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -5178,7 +5217,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -5193,7 +5232,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -5208,7 +5247,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -5223,7 +5262,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
@@ -5266,17 +5305,17 @@
       <selection pane="bottomLeft" activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -5291,7 +5330,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -5306,7 +5345,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -5341,7 +5380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -5356,7 +5395,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>50</v>
       </c>
@@ -5371,8 +5410,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -5388,7 +5427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -5406,7 +5445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -5416,7 +5455,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -5436,7 +5475,7 @@
         <v>6186711</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -5446,7 +5485,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -5456,7 +5495,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -5476,7 +5515,7 @@
         <v>3021948</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -5496,7 +5535,7 @@
         <v>3164763</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -5506,7 +5545,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -5516,7 +5555,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -5536,7 +5575,7 @@
         <v>944947</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -5556,7 +5595,7 @@
         <v>948865</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -5576,7 +5615,7 @@
         <v>1217255</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -5596,7 +5635,7 @@
         <v>1064447</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -5616,7 +5655,7 @@
         <v>895114</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -5636,7 +5675,7 @@
         <v>610651</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -5656,7 +5695,7 @@
         <v>505433</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -5666,7 +5705,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -5676,7 +5715,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -5696,7 +5735,7 @@
         <v>798256</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -5716,7 +5755,7 @@
         <v>2754258</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -5736,7 +5775,7 @@
         <v>1358655</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -5746,7 +5785,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -5756,7 +5795,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -5776,7 +5815,7 @@
         <v>4450369</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -5796,7 +5835,7 @@
         <v>1454201</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -5816,7 +5855,7 @@
         <v>282141</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -5826,7 +5865,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -5836,7 +5875,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -5856,7 +5895,7 @@
         <v>1132753</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -5876,7 +5915,7 @@
         <v>1403559</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -5896,7 +5935,7 @@
         <v>856150</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -5916,7 +5955,7 @@
         <v>1083332</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -5936,7 +5975,7 @@
         <v>863568</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -5956,7 +5995,7 @@
         <v>580476</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -5976,7 +6015,7 @@
         <v>266872</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -5986,7 +6025,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -5996,7 +6035,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -6006,7 +6045,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -6026,7 +6065,7 @@
         <v>486648</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -6046,7 +6085,7 @@
         <v>468107</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -6066,7 +6105,7 @@
         <v>607772</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -6086,7 +6125,7 @@
         <v>534117</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -6106,7 +6145,7 @@
         <v>443326</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -6126,7 +6165,7 @@
         <v>283727</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -6146,7 +6185,7 @@
         <v>198251</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -6156,7 +6195,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -6176,7 +6215,7 @@
         <v>458298</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -6196,7 +6235,7 @@
         <v>480758</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -6216,7 +6255,7 @@
         <v>609483</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -6236,7 +6275,7 @@
         <v>530330</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -6256,7 +6295,7 @@
         <v>451788</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -6276,7 +6315,7 @@
         <v>326924</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -6296,7 +6335,7 @@
         <v>307182</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -6306,7 +6345,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -6316,7 +6355,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -6326,7 +6365,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -6346,7 +6385,7 @@
         <v>241211</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -6366,7 +6405,7 @@
         <v>1232233</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -6386,7 +6425,7 @@
         <v>885500</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -6396,7 +6435,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -6416,7 +6455,7 @@
         <v>557045</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -6436,7 +6475,7 @@
         <v>1522024</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -6456,7 +6495,7 @@
         <v>473155</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -6466,7 +6505,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -6481,7 +6520,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -6496,7 +6535,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -6511,7 +6550,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -6526,7 +6565,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -6541,7 +6580,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
@@ -6584,17 +6623,17 @@
       <selection pane="bottomLeft" activeCell="A5" sqref="A5:K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -6609,7 +6648,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -6624,7 +6663,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -6659,7 +6698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -6674,7 +6713,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>51</v>
       </c>
@@ -6689,8 +6728,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -6706,7 +6745,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -6724,7 +6763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -6734,7 +6773,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -6754,7 +6793,7 @@
         <v>6017407</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -6764,7 +6803,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -6774,7 +6813,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -6794,7 +6833,7 @@
         <v>2909185</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -6814,7 +6853,7 @@
         <v>3108222</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -6824,7 +6863,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -6834,7 +6873,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -6854,7 +6893,7 @@
         <v>844576</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -6874,7 +6913,7 @@
         <v>1026905</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -6894,7 +6933,7 @@
         <v>1200793</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -6914,7 +6953,7 @@
         <v>992818</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -6934,7 +6973,7 @@
         <v>834623</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -6954,7 +6993,7 @@
         <v>642804</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -6974,7 +7013,7 @@
         <v>474888</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -6984,7 +7023,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -6994,7 +7033,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -7014,7 +7053,7 @@
         <v>995012</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -7034,7 +7073,7 @@
         <v>3244142</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -7054,7 +7093,7 @@
         <v>911713</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -7064,7 +7103,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -7074,7 +7113,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -7094,7 +7133,7 @@
         <v>4344117</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -7114,7 +7153,7 @@
         <v>1395992</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -7134,7 +7173,7 @@
         <v>277298</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -7144,7 +7183,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -7154,7 +7193,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -7174,7 +7213,7 @@
         <v>1080734</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -7194,7 +7233,7 @@
         <v>1387033</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -7214,7 +7253,7 @@
         <v>833244</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -7234,7 +7273,7 @@
         <v>1037441</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -7254,7 +7293,7 @@
         <v>854245</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -7274,7 +7313,7 @@
         <v>562411</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -7294,7 +7333,7 @@
         <v>262299</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -7304,7 +7343,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -7314,7 +7353,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -7324,7 +7363,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -7344,7 +7383,7 @@
         <v>430144</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -7364,7 +7403,7 @@
         <v>506928</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -7384,7 +7423,7 @@
         <v>605964</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -7404,7 +7443,7 @@
         <v>499569</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -7424,7 +7463,7 @@
         <v>412634</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -7444,7 +7483,7 @@
         <v>274556</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -7464,7 +7503,7 @@
         <v>179390</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -7474,7 +7513,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -7494,7 +7533,7 @@
         <v>414432</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -7514,7 +7553,7 @@
         <v>519977</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -7534,7 +7573,7 @@
         <v>594829</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -7554,7 +7593,7 @@
         <v>493249</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -7574,7 +7613,7 @@
         <v>421989</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -7594,7 +7633,7 @@
         <v>368248</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -7614,7 +7653,7 @@
         <v>295499</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -7624,7 +7663,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -7634,7 +7673,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -7644,7 +7683,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -7664,7 +7703,7 @@
         <v>331062</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -7684,7 +7723,7 @@
         <v>1494972</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -7704,7 +7743,7 @@
         <v>644786</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -7714,7 +7753,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -7734,7 +7773,7 @@
         <v>663950</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -7754,7 +7793,7 @@
         <v>1749171</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -7774,7 +7813,7 @@
         <v>266927</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -7784,7 +7823,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -7799,7 +7838,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -7814,7 +7853,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -7829,7 +7868,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -7844,7 +7883,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -7859,7 +7898,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
@@ -7902,17 +7941,17 @@
       <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -7927,7 +7966,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -7942,7 +7981,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -7977,7 +8016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -7992,7 +8031,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>52</v>
       </c>
@@ -8007,8 +8046,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -8024,7 +8063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -8042,7 +8081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -8052,7 +8091,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -8072,7 +8111,7 @@
         <v>5880186</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -8082,7 +8121,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -8092,7 +8131,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -8112,7 +8151,7 @@
         <v>2827975</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -8132,7 +8171,7 @@
         <v>3052211</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -8142,7 +8181,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -8152,7 +8191,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -8172,7 +8211,7 @@
         <v>807739</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8231,7 @@
         <v>1131543</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -8212,7 +8251,7 @@
         <v>1115136</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -8232,7 +8271,7 @@
         <v>993607</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -8252,7 +8291,7 @@
         <v>741919</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -8272,7 +8311,7 @@
         <v>631879</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -8292,7 +8331,7 @@
         <v>458364</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -8302,7 +8341,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -8312,7 +8351,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -8332,7 +8371,7 @@
         <v>1124834</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -8352,7 +8391,7 @@
         <v>2976334</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -8372,7 +8411,7 @@
         <v>957180</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -8382,7 +8421,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -8392,7 +8431,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -8412,7 +8451,7 @@
         <v>4207439</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -8432,7 +8471,7 @@
         <v>1391565</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -8452,7 +8491,7 @@
         <v>281182</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -8462,7 +8501,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -8472,7 +8511,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -8492,7 +8531,7 @@
         <v>1079311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -8512,7 +8551,7 @@
         <v>1350940</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -8532,7 +8571,7 @@
         <v>819035</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -8552,7 +8591,7 @@
         <v>1011868</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -8572,7 +8611,7 @@
         <v>808898</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -8592,7 +8631,7 @@
         <v>543131</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -8612,7 +8651,7 @@
         <v>267003</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -8622,7 +8661,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -8632,7 +8671,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -8642,7 +8681,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -8662,7 +8701,7 @@
         <v>406866</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -8682,7 +8721,7 @@
         <v>561107</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -8702,7 +8741,7 @@
         <v>563191</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -8722,7 +8761,7 @@
         <v>493036</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -8742,7 +8781,7 @@
         <v>368002</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -8762,7 +8801,7 @@
         <v>269585</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -8782,7 +8821,7 @@
         <v>166187</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -8792,7 +8831,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -8812,7 +8851,7 @@
         <v>400874</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -8832,7 +8871,7 @@
         <v>570435</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -8852,7 +8891,7 @@
         <v>551945</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -8872,7 +8911,7 @@
         <v>500570</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -8892,7 +8931,7 @@
         <v>373916</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -8912,7 +8951,7 @@
         <v>362294</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -8932,7 +8971,7 @@
         <v>292177</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -8942,7 +8981,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -8952,7 +8991,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -8962,7 +9001,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -8982,7 +9021,7 @@
         <v>363304</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -9002,7 +9041,7 @@
         <v>1335108</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -9022,7 +9061,7 @@
         <v>717067</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -9032,7 +9071,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -9052,7 +9091,7 @@
         <v>761529</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -9072,7 +9111,7 @@
         <v>1641226</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -9092,7 +9131,7 @@
         <v>240113</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -9102,7 +9141,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -9117,7 +9156,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -9132,7 +9171,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -9147,7 +9186,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -9162,7 +9201,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -9177,7 +9216,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
@@ -9220,17 +9259,17 @@
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="0.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="11" width="6.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="10.625" style="1"/>
+    <col min="12" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -9245,7 +9284,7 @@
       <c r="J1" s="30"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
@@ -9260,7 +9299,7 @@
       <c r="J2" s="33"/>
       <c r="K2" s="34"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -9295,7 +9334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="35" t="s">
         <v>3</v>
       </c>
@@ -9310,7 +9349,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="36" t="s">
         <v>53</v>
       </c>
@@ -9325,8 +9364,8 @@
       <c r="J5" s="36"/>
       <c r="K5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:11" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="37" t="s">
         <v>2</v>
       </c>
@@ -9342,7 +9381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="27" t="s">
         <v>2</v>
       </c>
@@ -9360,7 +9399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
@@ -9370,7 +9409,7 @@
       <c r="E9" s="28"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -9390,7 +9429,7 @@
         <v>5678107</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="16"/>
       <c r="B11" s="21" t="s">
         <v>11</v>
@@ -9400,7 +9439,7 @@
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="17"/>
       <c r="B12" s="22" t="s">
         <v>13</v>
@@ -9410,7 +9449,7 @@
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
-    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>2</v>
       </c>
@@ -9430,7 +9469,7 @@
         <v>2733247</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
@@ -9450,7 +9489,7 @@
         <v>2944859</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="16"/>
       <c r="B15" s="21" t="s">
         <v>11</v>
@@ -9460,7 +9499,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
       <c r="B16" s="22" t="s">
         <v>16</v>
@@ -9470,7 +9509,7 @@
       <c r="E16" s="18"/>
       <c r="F16" s="19"/>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
         <v>2</v>
       </c>
@@ -9490,7 +9529,7 @@
         <v>850599</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -9510,7 +9549,7 @@
         <v>1183891</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -9530,7 +9569,7 @@
         <v>1033650</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
         <v>2</v>
       </c>
@@ -9550,7 +9589,7 @@
         <v>939580</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2" t="s">
         <v>2</v>
       </c>
@@ -9570,7 +9609,7 @@
         <v>669303</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
         <v>2</v>
       </c>
@@ -9590,7 +9629,7 @@
         <v>658067</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
         <v>2</v>
       </c>
@@ -9610,7 +9649,7 @@
         <v>343017</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="21" t="s">
         <v>11</v>
@@ -9620,7 +9659,7 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="17"/>
       <c r="B25" s="22" t="s">
         <v>24</v>
@@ -9630,7 +9669,7 @@
       <c r="E25" s="18"/>
       <c r="F25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2" t="s">
         <v>2</v>
       </c>
@@ -9650,7 +9689,7 @@
         <v>1040426</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
         <v>2</v>
       </c>
@@ -9670,7 +9709,7 @@
         <v>2701832</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
         <v>2</v>
       </c>
@@ -9690,7 +9729,7 @@
         <v>1084025</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="16"/>
       <c r="B29" s="21" t="s">
         <v>11</v>
@@ -9700,7 +9739,7 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="17"/>
       <c r="B30" s="22" t="s">
         <v>28</v>
@@ -9710,7 +9749,7 @@
       <c r="E30" s="18"/>
       <c r="F30" s="19"/>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
         <v>2</v>
       </c>
@@ -9730,7 +9769,7 @@
         <v>4073478</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>2</v>
       </c>
@@ -9750,7 +9789,7 @@
         <v>1338689</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>2</v>
       </c>
@@ -9770,7 +9809,7 @@
         <v>265939</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="16"/>
       <c r="B34" s="21" t="s">
         <v>11</v>
@@ -9780,7 +9819,7 @@
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="22" t="s">
         <v>32</v>
@@ -9790,7 +9829,7 @@
       <c r="E35" s="18"/>
       <c r="F35" s="19"/>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
         <v>2</v>
       </c>
@@ -9810,7 +9849,7 @@
         <v>1031311</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
         <v>2</v>
       </c>
@@ -9830,7 +9869,7 @@
         <v>1340677</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
         <v>2</v>
       </c>
@@ -9850,7 +9889,7 @@
         <v>782664</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
         <v>2</v>
       </c>
@@ -9870,7 +9909,7 @@
         <v>967485</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
         <v>2</v>
       </c>
@@ -9890,7 +9929,7 @@
         <v>791910</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
         <v>2</v>
       </c>
@@ -9910,7 +9949,7 @@
         <v>511660</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
         <v>2</v>
       </c>
@@ -9930,7 +9969,7 @@
         <v>252399</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16"/>
       <c r="B43" s="21" t="s">
         <v>11</v>
@@ -9940,7 +9979,7 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="17"/>
       <c r="B44" s="22" t="s">
         <v>40</v>
@@ -9950,7 +9989,7 @@
       <c r="E44" s="18"/>
       <c r="F44" s="19"/>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="12"/>
       <c r="B45" s="24" t="s">
         <v>14</v>
@@ -9960,7 +9999,7 @@
       <c r="E45" s="13"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
         <v>2</v>
       </c>
@@ -9980,7 +10019,7 @@
         <v>430423</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
         <v>2</v>
       </c>
@@ -10000,7 +10039,7 @@
         <v>570742</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
         <v>2</v>
       </c>
@@ -10020,7 +10059,7 @@
         <v>510641</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
         <v>2</v>
       </c>
@@ -10040,7 +10079,7 @@
         <v>449764</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
         <v>2</v>
       </c>
@@ -10060,7 +10099,7 @@
         <v>319504</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
         <v>2</v>
       </c>
@@ -10080,7 +10119,7 @@
         <v>306744</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
         <v>2</v>
       </c>
@@ -10100,7 +10139,7 @@
         <v>145429</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="12"/>
       <c r="B53" s="24" t="s">
         <v>15</v>
@@ -10110,7 +10149,7 @@
       <c r="E53" s="13"/>
       <c r="F53" s="14"/>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
         <v>2</v>
       </c>
@@ -10130,7 +10169,7 @@
         <v>420177</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
         <v>2</v>
       </c>
@@ -10150,7 +10189,7 @@
         <v>613149</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
         <v>2</v>
       </c>
@@ -10170,7 +10209,7 @@
         <v>523009</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
         <v>2</v>
       </c>
@@ -10190,7 +10229,7 @@
         <v>489816</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
         <v>2</v>
       </c>
@@ -10210,7 +10249,7 @@
         <v>349799</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
         <v>2</v>
       </c>
@@ -10230,7 +10269,7 @@
         <v>351323</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
         <v>2</v>
       </c>
@@ -10250,7 +10289,7 @@
         <v>197588</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="16"/>
       <c r="B61" s="21" t="s">
         <v>11</v>
@@ -10260,7 +10299,7 @@
       <c r="E61" s="16"/>
       <c r="F61" s="16"/>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="17"/>
       <c r="B62" s="22" t="s">
         <v>41</v>
@@ -10270,7 +10309,7 @@
       <c r="E62" s="18"/>
       <c r="F62" s="19"/>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="12"/>
       <c r="B63" s="24" t="s">
         <v>14</v>
@@ -10280,7 +10319,7 @@
       <c r="E63" s="13"/>
       <c r="F63" s="14"/>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
         <v>2</v>
       </c>
@@ -10300,7 +10339,7 @@
         <v>334750</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
         <v>2</v>
       </c>
@@ -10320,7 +10359,7 @@
         <v>1234675</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
         <v>2</v>
       </c>
@@ -10340,7 +10379,7 @@
         <v>732905</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="12"/>
       <c r="B67" s="24" t="s">
         <v>15</v>
@@ -10350,7 +10389,7 @@
       <c r="E67" s="13"/>
       <c r="F67" s="14"/>
     </row>
-    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>2</v>
       </c>
@@ -10370,7 +10409,7 @@
         <v>705676</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>2</v>
       </c>
@@ -10390,7 +10429,7 @@
         <v>1467157</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
         <v>2</v>
       </c>
@@ -10410,7 +10449,7 @@
         <v>351120</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="15"/>
       <c r="B71" s="26" t="s">
         <v>11</v>
@@ -10420,7 +10459,7 @@
       <c r="E71" s="15"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="11"/>
       <c r="B72" s="11" t="s">
         <v>42</v>
@@ -10435,7 +10474,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="11"/>
       <c r="B73" s="11" t="s">
         <v>43</v>
@@ -10450,7 +10489,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="11"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="11"/>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -10465,7 +10504,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>44</v>
@@ -10480,7 +10519,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="11"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>45</v>
@@ -10495,7 +10534,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="11"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>46</v>
